--- a/preprod/utilities/preprod_test_data.xlsx
+++ b/preprod/utilities/preprod_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9120"/>
+    <workbookView windowWidth="23040" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>

--- a/preprod/utilities/preprod_test_data.xlsx
+++ b/preprod/utilities/preprod_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8400"/>
+    <workbookView windowWidth="23040" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>gauravkale169@gmail.com</t>
   </si>
   <si>
-    <t>Note,this is single share</t>
+    <t>Note,this is single share in Preprod</t>
   </si>
   <si>
     <t>User_email</t>
@@ -92,7 +92,7 @@
     <t>Group campaign</t>
   </si>
   <si>
-    <t>Note,this is group share</t>
+    <t>Note,this is group share in Preprod</t>
   </si>
 </sst>
 </file>
@@ -1254,19 +1254,19 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="22.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="6.88888888888889" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="29.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="40.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="20.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="25.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="8" max="8" width="31.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
